--- a/Tarea C3C/setup time y hold time.xlsx
+++ b/Tarea C3C/setup time y hold time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UMG\2025_1ro\emprendimiento proyectos e inonvacion\Tarea C3C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95168C8-CC93-417E-A62B-8459337D6D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4706C1F5-FBAE-42E1-8467-B69C5F5A09C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CE52EA57-B480-4995-8557-947AD9C8B4EA}"/>
   </bookViews>
@@ -901,7 +901,7 @@
   <dimension ref="D5:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0758F600-8FE8-4028-A72D-2B7C6EB36CA7}">
   <dimension ref="C6:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
